--- a/peticoes/entidades-reescritas.xlsx
+++ b/peticoes/entidades-reescritas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedroauler/Developer/lawtech/peticoes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23B3CC41-6112-DC43-907A-6CED7E9BD3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F5B177-E0F8-2E4E-9ECB-C79E96E48C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>CNPJ</t>
   </si>
@@ -67,22 +67,37 @@
     <t>PER</t>
   </si>
   <si>
+    <t>PER2</t>
+  </si>
+  <si>
     <t>TEXT</t>
   </si>
   <si>
+    <t>02 de setembro de 2024.</t>
+  </si>
+  <si>
     <t>São Paulo</t>
   </si>
   <si>
+    <t>São Paulo , 02 de setembro de 2024</t>
+  </si>
+  <si>
     <t>Ao</t>
   </si>
   <si>
     <t>Ilmo</t>
   </si>
   <si>
+    <t xml:space="preserve">LEONILDO ROLIM DOS SANTOS </t>
+  </si>
+  <si>
     <t>Sr. Leonildo</t>
   </si>
   <si>
-    <t>Ilmo. Sr. [ORG]“[PER]”)</t>
+    <t xml:space="preserve">Sr. LEONILDO ROLIM DOS SANTOS </t>
+  </si>
+  <si>
+    <t>Ilmo. Sr. LEONILDO ROLIM DOS SANTOS ("Sr. Leonildo")</t>
   </si>
   <si>
     <t>16/08/2024</t>
@@ -94,25 +109,28 @@
     <t>Proposta</t>
   </si>
   <si>
-    <t>Parecer Jurídico Sigiloso</t>
-  </si>
-  <si>
-    <t>Ref: [PER] ([DATA]) e Proposta ([DATA])</t>
-  </si>
-  <si>
-    <t>OAB/</t>
+    <t/>
+  </si>
+  <si>
+    <t>Ref: Parecer Juridico Sigiloso (10/06/2024) e Proposta (16/08/2024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP </t>
+  </si>
+  <si>
+    <t>OAB/SP nº 84.009</t>
   </si>
   <si>
     <t>Dr. Luis Bitetti</t>
   </si>
   <si>
-    <t>[ORG][ORG] [PER] – [ORG][ORG] 84.009</t>
+    <t>A/C.: Dr. Luis Bitetti - OAB/SP nº 84.009</t>
   </si>
   <si>
     <t>bitetti@adv.oabsp.org.br</t>
   </si>
   <si>
-    <t xml:space="preserve">E-mail: [EMAIL] </t>
+    <t xml:space="preserve">E-mail: bitetti@adv.oabsp.org.br </t>
   </si>
   <si>
     <t>Prezado Senhor,</t>
@@ -121,15 +139,45 @@
     <t>BRL TRUST DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A.,</t>
   </si>
   <si>
+    <t>AFFONSO FERREIRA ADVOGADOS</t>
+  </si>
+  <si>
+    <t>Dr. HENRIQUE LINDENBOJM,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dra. HALBA MERY PEREBONI ROCCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">			Na qualidade de advogados da BRL TRUST DISTRIBUIDORA DE TÍTULOS E VALORES MOBILIÁRIOS S.A., cessionária dos honorários contratuais então titulados pelo escritório AFFONSO FERREIRA ADVOGADOS  Dra. HALBA MERY PEREBONI ROCCO  Dr. HENRIQUE LINDENBOJM, em resposta ao parecer e à proposta em referência, e considerando que:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			(a) a ora Notificante adquiriu de boa-fé os créditos de honorários devidos por décadas de patrocínio da ação de Desapropriação Indireta  nº 0527173-63.1994.4.03.6100, cujos requisitórios foram expedidos de forma apartada da verba principal;</t>
+  </si>
+  <si>
     <t>Ubatumirim</t>
   </si>
   <si>
     <t>Ubatuba</t>
   </si>
   <si>
+    <t>BR-101</t>
+  </si>
+  <si>
+    <t>STF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">			(b) Tal verba, de natureza alimentar Súmula Vinculante 47/STF, é autônoma e não possui relação com a indenização devida pela União em decorrência da desapropriação de áreas situadas no município de Ubatuba/Ubatumirim na década de setenta para a expansão de rodovia federal (BR-101);</t>
+  </si>
+  <si>
     <t>AGRÍCOLA AREIA BRANCA.</t>
   </si>
   <si>
+    <t xml:space="preserve">			(c) Eventual confusão entre áreas desapropriadas, conforme alegação descrita no parecer, se daria exclusivamente por uma sobreposição de glebas dos Autores com outra limítrofe e titulada pela companhia AGRÍCOLA AREIA BRANCA. Aliás, conforme expressamente reconhecido na proposta de 16/08/2024; e </t>
+  </si>
+  <si>
+    <t xml:space="preserve">			(d) O transcurso de décadas sem oposição, a tempo e modo, pelo Notificado (Sr. Leonildo) ocorrendo, sem qualquer dúvida, a extinção de eventual direito pela ocorrência da prescrição, uma vez que a o trecho da estrada BR-101 reivindicando fora construído há mais de 50 (cinquenta) anos.</t>
+  </si>
+  <si>
     <t xml:space="preserve">			Vimos notificá-lo da inconsistência da pretensão vertida no parecer e na proposição e da tentativa ilegítima da postulação frente à Notificante, a qual defenderá seu direito em qualquer via que se fizer necessária, inclusive na seara deontológica.</t>
   </si>
   <si>
@@ -142,74 +190,20 @@
     <t>AFRANIO AFFONSO FERREIRA NETO</t>
   </si>
   <si>
-    <t>[PER]</t>
-  </si>
-  <si>
     <t>OAB-SP nº 155.406</t>
   </si>
   <si>
-    <t>[OAB]</t>
-  </si>
-  <si>
     <t>GUSTAVO SURIAN BALESTRERO</t>
   </si>
   <si>
-    <t>[ORG]</t>
-  </si>
-  <si>
     <t>OAB-SP nº 207.405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEONILDO ROLIM DOS SANTOS </t>
-  </si>
-  <si>
-    <t>02 de setembro de 2024.</t>
-  </si>
-  <si>
-    <t>PER2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sr. LEONILDO ROLIM DOS SANTOS </t>
-  </si>
-  <si>
-    <t>Dr. HENRIQUE LINDENBOJM,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HALBA MERY PEREBONI ROCCO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP </t>
-  </si>
-  <si>
-    <t>AFFONSO FERREIRA ADVOGADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">			Na qualidade de advogados da [ORG] cessionária dos honorários contratuais então titulados pelo escritório [ORG] Dra. [PER] Dr. [PER] em resposta ao parecer e à proposta em referência, e considerando que:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">			(a) a ora Notificante adquiriu de boa-fé os créditos de honorários devidos por décadas de patrocínio da ação de Desapropriação Indireta  nº 0527173-63.1994.4.03.6100, cujos requisitórios foram expedidos de forma apartada da verba principal;</t>
-  </si>
-  <si>
-    <t>BR-101</t>
-  </si>
-  <si>
-    <t>STF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">			(b) Tal verba, de natureza alimentar (Súmula Vinculante 47/[ORG], é autônoma e não possui relação com a indenização devida pela União em decorrência da desapropriação de áreas situadas no município de [LOC]/[LOC]) na década de setenta para a expansão de rodovia federal ([LOC]);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">			(c) Eventual confusão entre áreas desapropriadas, conforme alegação descrita no parecer, se daria exclusivamente por uma sobreposição de glebas dos Autores com outra limítrofe e titulada pela companhia [ORG] Aliás, conforme expressamente reconhecido na proposta de [DATA]; e </t>
-  </si>
-  <si>
-    <t xml:space="preserve">			(d) O transcurso de décadas sem oposição, a tempo e modo, pelo Notificado ([PER]) ocorrendo, sem qualquer dúvida, a extinção de eventual direito pela ocorrência da prescrição, uma vez que a o trecho da estrada BR-101 reivindicando fora construído há mais de 50 (cinquenta) anos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +214,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -232,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -242,27 +243,56 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -356,6 +386,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -390,6 +421,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,7 +445,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -424,31 +455,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -470,7 +501,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -528,7 +559,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -541,13 +572,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -566,40 +596,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" customWidth="1"/>
-    <col min="2" max="2" width="1.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="31.83203125" customWidth="1"/>
-    <col min="12" max="12" width="26.5" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="31.83203125" customWidth="1"/>
-    <col min="16" max="16" width="28.1640625" customWidth="1"/>
-    <col min="17" max="17" width="227.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -639,195 +673,198 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="Q3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
+    </row>
+    <row r="12" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="6">
+        <v>45520</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
         <v>46</v>
       </c>
-      <c r="O4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O13" t="s">
         <v>23</v>
       </c>
-      <c r="O5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F6" t="s">
+      <c r="Q13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q14" t="s">
         <v>52</v>
       </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="Q8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" t="s">
+    </row>
+    <row r="15" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q15" t="s">
         <v>53</v>
       </c>
-      <c r="O9" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q9" t="s">
+    </row>
+    <row r="16" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="Q10" t="s">
+    <row r="17" spans="10:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="Q17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
         <v>56</v>
       </c>
-      <c r="K11" t="s">
+      <c r="Q18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="Q14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="Q15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="Q16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="O17" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J18" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="O19" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J20" t="s">
-        <v>45</v>
-      </c>
       <c r="Q20" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>